--- a/自动化测试开发商业实战课程规划.xlsx
+++ b/自动化测试开发商业实战课程规划.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zjy/Documents/workDocument/慕课网/2.商业课评估资料/2、接口自动化测试开发企业级实战－基于JAVA语言/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="1460" windowWidth="28200" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="课程教学大纲V1.0" sheetId="1" r:id="rId1"/>
@@ -2449,216 +2444,216 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3795,11 +3790,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV140"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" workbookViewId="0">
       <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" style="1" customWidth="1"/>
@@ -3810,142 +3805,142 @@
     <col min="257" max="16384" width="15.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="83"/>
-    </row>
-    <row r="2" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="87"/>
-    </row>
-    <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="68"/>
+    </row>
+    <row r="2" spans="1:5" ht="65.25" customHeight="1">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="72"/>
+    </row>
+    <row r="3" spans="1:5" ht="40.5" customHeight="1">
+      <c r="A3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-    </row>
-    <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="109" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+    </row>
+    <row r="4" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A4" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="110" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-    </row>
-    <row r="5" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+    </row>
+    <row r="5" spans="1:5" ht="84.75" customHeight="1">
+      <c r="A5" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="88" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-    </row>
-    <row r="6" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-    </row>
-    <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="98" t="s">
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+    </row>
+    <row r="6" spans="1:5" ht="84.75" customHeight="1">
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+    </row>
+    <row r="7" spans="1:5" ht="40.5" customHeight="1">
+      <c r="A7" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-    </row>
-    <row r="8" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
+      <c r="B7" s="83"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+    </row>
+    <row r="8" spans="1:5" ht="169.5" customHeight="1">
+      <c r="A8" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-    </row>
-    <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="98" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+    </row>
+    <row r="9" spans="1:5" ht="40.5" customHeight="1">
+      <c r="A9" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="101"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-    </row>
-    <row r="10" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="103" t="s">
+      <c r="B9" s="83"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+    </row>
+    <row r="10" spans="1:5" ht="119.25" customHeight="1">
+      <c r="A10" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-    </row>
-    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="98" t="s">
+      <c r="B10" s="86"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+    </row>
+    <row r="11" spans="1:5" ht="40.5" customHeight="1">
+      <c r="A11" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-    </row>
-    <row r="12" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
+      <c r="B11" s="83"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+    </row>
+    <row r="12" spans="1:5" ht="169.5" customHeight="1">
+      <c r="A12" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-    </row>
-    <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="98" t="s">
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+    </row>
+    <row r="13" spans="1:5" ht="40.5" customHeight="1">
+      <c r="A13" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-    </row>
-    <row r="14" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="95" t="s">
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+    </row>
+    <row r="14" spans="1:5" ht="169.5" customHeight="1">
+      <c r="A14" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-    </row>
-    <row r="15" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="98" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+    </row>
+    <row r="15" spans="1:5" ht="40.5" customHeight="1">
+      <c r="A15" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
@@ -3962,11 +3957,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50">
+    <row r="17" spans="1:5" ht="35" customHeight="1">
+      <c r="A17" s="113">
         <v>1</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="60" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="31" t="s">
@@ -3975,47 +3970,47 @@
       <c r="D17" s="8"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="49"/>
+    <row r="18" spans="1:5" ht="35" customHeight="1">
+      <c r="A18" s="98"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="31" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="49"/>
+    <row r="19" spans="1:5" ht="35" customHeight="1">
+      <c r="A19" s="98"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="31" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="49"/>
+    <row r="20" spans="1:5" ht="35" customHeight="1">
+      <c r="A20" s="98"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="44" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="49"/>
+    <row r="21" spans="1:5" ht="35" customHeight="1">
+      <c r="A21" s="114"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="44" t="s">
         <v>99</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57">
+    <row r="22" spans="1:5" ht="35" customHeight="1">
+      <c r="A22" s="59">
         <v>2</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="60" t="s">
         <v>91</v>
       </c>
       <c r="C22" s="44" t="s">
@@ -4024,29 +4019,29 @@
       <c r="D22" s="42"/>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="49"/>
+    <row r="23" spans="1:5" ht="35" customHeight="1">
+      <c r="A23" s="59"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="44" t="s">
         <v>94</v>
       </c>
       <c r="D23" s="42"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="49"/>
+    <row r="24" spans="1:5" ht="35" customHeight="1">
+      <c r="A24" s="59"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="44" t="s">
         <v>93</v>
       </c>
       <c r="D24" s="42"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55">
+    <row r="25" spans="1:5" ht="35" customHeight="1">
+      <c r="A25" s="52">
         <v>3</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="60" t="s">
         <v>110</v>
       </c>
       <c r="C25" s="44" t="s">
@@ -4055,38 +4050,38 @@
       <c r="D25" s="43"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
-      <c r="B26" s="49"/>
+    <row r="26" spans="1:5" ht="35" customHeight="1">
+      <c r="A26" s="53"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="44" t="s">
         <v>111</v>
       </c>
       <c r="D26" s="43"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="63"/>
-      <c r="B27" s="49"/>
+    <row r="27" spans="1:5" ht="35" customHeight="1">
+      <c r="A27" s="53"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="44" t="s">
         <v>112</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="49"/>
+    <row r="28" spans="1:5" ht="35" customHeight="1">
+      <c r="A28" s="61"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="44" t="s">
         <v>113</v>
       </c>
       <c r="D28" s="43"/>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57">
+    <row r="29" spans="1:5" ht="35" customHeight="1">
+      <c r="A29" s="59">
         <v>4</v>
       </c>
-      <c r="B29" s="115" t="s">
+      <c r="B29" s="57" t="s">
         <v>69</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -4095,29 +4090,29 @@
       <c r="D29" s="37"/>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="115"/>
+    <row r="30" spans="1:5" ht="35" customHeight="1">
+      <c r="A30" s="59"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D30" s="37"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="116"/>
+    <row r="31" spans="1:5" ht="35" customHeight="1">
+      <c r="A31" s="59"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="37"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="68">
+    <row r="32" spans="1:5" ht="35" customHeight="1">
+      <c r="A32" s="95">
         <v>5</v>
       </c>
-      <c r="B32" s="111" t="s">
+      <c r="B32" s="116" t="s">
         <v>114</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -4126,38 +4121,38 @@
       <c r="D32" s="8"/>
       <c r="E32" s="30"/>
     </row>
-    <row r="33" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="68"/>
-      <c r="B33" s="112"/>
+    <row r="33" spans="1:5" ht="35" customHeight="1">
+      <c r="A33" s="95"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="39"/>
     </row>
-    <row r="34" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="68"/>
-      <c r="B34" s="112"/>
+    <row r="34" spans="1:5" ht="35" customHeight="1">
+      <c r="A34" s="95"/>
+      <c r="B34" s="117"/>
       <c r="C34" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="39"/>
     </row>
-    <row r="35" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="68"/>
-      <c r="B35" s="112"/>
+    <row r="35" spans="1:5" ht="35" customHeight="1">
+      <c r="A35" s="95"/>
+      <c r="B35" s="117"/>
       <c r="C35" s="10" t="s">
         <v>61</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="39"/>
     </row>
-    <row r="36" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57">
+    <row r="36" spans="1:5" ht="35" customHeight="1">
+      <c r="A36" s="59">
         <v>6</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="60" t="s">
         <v>86</v>
       </c>
       <c r="C36" s="31" t="s">
@@ -4166,29 +4161,29 @@
       <c r="D36" s="40"/>
       <c r="E36" s="39"/>
     </row>
-    <row r="37" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="49"/>
+    <row r="37" spans="1:5" ht="35" customHeight="1">
+      <c r="A37" s="59"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="31" t="s">
         <v>100</v>
       </c>
       <c r="D37" s="40"/>
       <c r="E37" s="39"/>
     </row>
-    <row r="38" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="49"/>
+    <row r="38" spans="1:5" ht="35" customHeight="1">
+      <c r="A38" s="59"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="31" t="s">
         <v>88</v>
       </c>
       <c r="D38" s="40"/>
       <c r="E38" s="39"/>
     </row>
-    <row r="39" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="114">
+    <row r="39" spans="1:5" ht="35" customHeight="1">
+      <c r="A39" s="56">
         <v>7</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="60" t="s">
         <v>68</v>
       </c>
       <c r="C39" s="31" t="s">
@@ -4197,47 +4192,47 @@
       <c r="D39" s="40"/>
       <c r="E39" s="47"/>
     </row>
-    <row r="40" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="114"/>
-      <c r="B40" s="49"/>
+    <row r="40" spans="1:5" ht="35" customHeight="1">
+      <c r="A40" s="56"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="31" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="46"/>
     </row>
-    <row r="41" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="114"/>
-      <c r="B41" s="49"/>
+    <row r="41" spans="1:5" ht="35" customHeight="1">
+      <c r="A41" s="56"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="31" t="s">
         <v>76</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="13"/>
     </row>
-    <row r="42" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="114"/>
-      <c r="B42" s="49"/>
+    <row r="42" spans="1:5" ht="35" customHeight="1">
+      <c r="A42" s="56"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="31" t="s">
         <v>77</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="13"/>
     </row>
-    <row r="43" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="114"/>
-      <c r="B43" s="49"/>
+    <row r="43" spans="1:5" ht="35" customHeight="1">
+      <c r="A43" s="56"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="31" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="36"/>
       <c r="E43" s="13"/>
     </row>
-    <row r="44" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="55">
+    <row r="44" spans="1:5" ht="35" customHeight="1">
+      <c r="A44" s="52">
         <v>8</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="60" t="s">
         <v>79</v>
       </c>
       <c r="C44" s="31" t="s">
@@ -4246,47 +4241,47 @@
       <c r="D44" s="41"/>
       <c r="E44" s="13"/>
     </row>
-    <row r="45" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
-      <c r="B45" s="49"/>
+    <row r="45" spans="1:5" ht="35" customHeight="1">
+      <c r="A45" s="53"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="31" t="s">
         <v>81</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" s="13"/>
     </row>
-    <row r="46" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
-      <c r="B46" s="49"/>
+    <row r="46" spans="1:5" ht="35" customHeight="1">
+      <c r="A46" s="53"/>
+      <c r="B46" s="60"/>
       <c r="C46" s="31" t="s">
         <v>82</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="13"/>
     </row>
-    <row r="47" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="63"/>
-      <c r="B47" s="49"/>
+    <row r="47" spans="1:5" ht="35" customHeight="1">
+      <c r="A47" s="53"/>
+      <c r="B47" s="60"/>
       <c r="C47" s="31" t="s">
         <v>84</v>
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="13"/>
     </row>
-    <row r="48" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
-      <c r="B48" s="49"/>
+    <row r="48" spans="1:5" ht="35" customHeight="1">
+      <c r="A48" s="61"/>
+      <c r="B48" s="60"/>
       <c r="C48" s="31" t="s">
         <v>83</v>
       </c>
       <c r="D48" s="41"/>
       <c r="E48" s="13"/>
     </row>
-    <row r="49" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="57">
+    <row r="49" spans="1:5" ht="35" customHeight="1">
+      <c r="A49" s="59">
         <v>9</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="60" t="s">
         <v>70</v>
       </c>
       <c r="C49" s="31" t="s">
@@ -4295,47 +4290,47 @@
       <c r="D49" s="41"/>
       <c r="E49" s="13"/>
     </row>
-    <row r="50" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
-      <c r="B50" s="49"/>
+    <row r="50" spans="1:5" ht="35" customHeight="1">
+      <c r="A50" s="59"/>
+      <c r="B50" s="60"/>
       <c r="C50" s="31" t="s">
         <v>74</v>
       </c>
       <c r="D50" s="41"/>
       <c r="E50" s="13"/>
     </row>
-    <row r="51" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
-      <c r="B51" s="49"/>
+    <row r="51" spans="1:5" ht="35" customHeight="1">
+      <c r="A51" s="59"/>
+      <c r="B51" s="60"/>
       <c r="C51" s="31" t="s">
         <v>85</v>
       </c>
       <c r="D51" s="41"/>
       <c r="E51" s="13"/>
     </row>
-    <row r="52" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
-      <c r="B52" s="49"/>
+    <row r="52" spans="1:5" ht="35" customHeight="1">
+      <c r="A52" s="59"/>
+      <c r="B52" s="60"/>
       <c r="C52" s="31" t="s">
         <v>72</v>
       </c>
       <c r="D52" s="41"/>
       <c r="E52" s="13"/>
     </row>
-    <row r="53" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="57"/>
-      <c r="B53" s="49"/>
+    <row r="53" spans="1:5" ht="35" customHeight="1">
+      <c r="A53" s="59"/>
+      <c r="B53" s="60"/>
       <c r="C53" s="31" t="s">
         <v>73</v>
       </c>
       <c r="D53" s="41"/>
       <c r="E53" s="13"/>
     </row>
-    <row r="54" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="55">
+    <row r="54" spans="1:5" ht="35" customHeight="1">
+      <c r="A54" s="52">
         <v>10</v>
       </c>
-      <c r="B54" s="49" t="s">
+      <c r="B54" s="60" t="s">
         <v>78</v>
       </c>
       <c r="C54" s="10" t="s">
@@ -4344,47 +4339,47 @@
       <c r="D54" s="8"/>
       <c r="E54" s="11"/>
     </row>
-    <row r="55" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="63"/>
-      <c r="B55" s="49"/>
+    <row r="55" spans="1:5" ht="35" customHeight="1">
+      <c r="A55" s="53"/>
+      <c r="B55" s="60"/>
       <c r="C55" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D55" s="37"/>
       <c r="E55" s="11"/>
     </row>
-    <row r="56" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="63"/>
-      <c r="B56" s="49"/>
+    <row r="56" spans="1:5" ht="35" customHeight="1">
+      <c r="A56" s="53"/>
+      <c r="B56" s="60"/>
       <c r="C56" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D56" s="37"/>
       <c r="E56" s="11"/>
     </row>
-    <row r="57" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="63"/>
-      <c r="B57" s="49"/>
+    <row r="57" spans="1:5" ht="35" customHeight="1">
+      <c r="A57" s="53"/>
+      <c r="B57" s="60"/>
       <c r="C57" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D57" s="37"/>
       <c r="E57" s="11"/>
     </row>
-    <row r="58" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="63"/>
-      <c r="B58" s="49"/>
+    <row r="58" spans="1:5" ht="35" customHeight="1">
+      <c r="A58" s="53"/>
+      <c r="B58" s="60"/>
       <c r="C58" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="11"/>
     </row>
-    <row r="59" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="55">
+    <row r="59" spans="1:5" ht="35" customHeight="1">
+      <c r="A59" s="52">
         <v>11</v>
       </c>
-      <c r="B59" s="113" t="s">
+      <c r="B59" s="54" t="s">
         <v>89</v>
       </c>
       <c r="C59" s="10" t="s">
@@ -4393,56 +4388,56 @@
       <c r="D59" s="29"/>
       <c r="E59" s="11"/>
     </row>
-    <row r="60" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="63"/>
-      <c r="B60" s="59"/>
+    <row r="60" spans="1:5" ht="35" customHeight="1">
+      <c r="A60" s="53"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D60" s="41"/>
       <c r="E60" s="11"/>
     </row>
-    <row r="61" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="63"/>
-      <c r="B61" s="59"/>
+    <row r="61" spans="1:5" ht="35" customHeight="1">
+      <c r="A61" s="53"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D61" s="29"/>
       <c r="E61" s="11"/>
     </row>
-    <row r="62" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="63"/>
-      <c r="B62" s="59"/>
+    <row r="62" spans="1:5" ht="35" customHeight="1">
+      <c r="A62" s="53"/>
+      <c r="B62" s="55"/>
       <c r="C62" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D62" s="29"/>
       <c r="E62" s="11"/>
     </row>
-    <row r="63" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="63"/>
-      <c r="B63" s="59"/>
+    <row r="63" spans="1:5" ht="35" customHeight="1">
+      <c r="A63" s="53"/>
+      <c r="B63" s="55"/>
       <c r="C63" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D63" s="29"/>
       <c r="E63" s="11"/>
     </row>
-    <row r="64" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="63"/>
-      <c r="B64" s="59"/>
+    <row r="64" spans="1:5" ht="35" customHeight="1">
+      <c r="A64" s="53"/>
+      <c r="B64" s="55"/>
       <c r="C64" s="10" t="s">
         <v>64</v>
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="11"/>
     </row>
-    <row r="65" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="57">
+    <row r="65" spans="1:5" ht="35" customHeight="1">
+      <c r="A65" s="59">
         <v>12</v>
       </c>
-      <c r="B65" s="58" t="s">
+      <c r="B65" s="109" t="s">
         <v>95</v>
       </c>
       <c r="C65" s="31" t="s">
@@ -4451,20 +4446,20 @@
       <c r="D65" s="41"/>
       <c r="E65" s="30"/>
     </row>
-    <row r="66" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
-      <c r="B66" s="58"/>
+    <row r="66" spans="1:5" ht="35" customHeight="1">
+      <c r="A66" s="59"/>
+      <c r="B66" s="109"/>
       <c r="C66" s="31" t="s">
         <v>97</v>
       </c>
       <c r="D66" s="41"/>
       <c r="E66" s="30"/>
     </row>
-    <row r="67" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="64">
+    <row r="67" spans="1:5" ht="35" customHeight="1">
+      <c r="A67" s="110">
         <v>13</v>
       </c>
-      <c r="B67" s="58" t="s">
+      <c r="B67" s="109" t="s">
         <v>108</v>
       </c>
       <c r="C67" s="31" t="s">
@@ -4473,29 +4468,29 @@
       <c r="D67" s="41"/>
       <c r="E67" s="30"/>
     </row>
-    <row r="68" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="117"/>
-      <c r="B68" s="58"/>
+    <row r="68" spans="1:5" ht="35" customHeight="1">
+      <c r="A68" s="111"/>
+      <c r="B68" s="109"/>
       <c r="C68" s="31" t="s">
         <v>106</v>
       </c>
       <c r="D68" s="41"/>
       <c r="E68" s="30"/>
     </row>
-    <row r="69" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="65"/>
-      <c r="B69" s="58"/>
+    <row r="69" spans="1:5" ht="35" customHeight="1">
+      <c r="A69" s="112"/>
+      <c r="B69" s="109"/>
       <c r="C69" s="31" t="s">
         <v>107</v>
       </c>
       <c r="D69" s="41"/>
       <c r="E69" s="30"/>
     </row>
-    <row r="70" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="73">
+    <row r="70" spans="1:5" ht="35" customHeight="1">
+      <c r="A70" s="97">
         <v>14</v>
       </c>
-      <c r="B70" s="49" t="s">
+      <c r="B70" s="60" t="s">
         <v>42</v>
       </c>
       <c r="C70" s="10" t="s">
@@ -4504,29 +4499,29 @@
       <c r="D70" s="29"/>
       <c r="E70" s="27"/>
     </row>
-    <row r="71" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="51"/>
-      <c r="B71" s="49"/>
+    <row r="71" spans="1:5" ht="35" customHeight="1">
+      <c r="A71" s="98"/>
+      <c r="B71" s="60"/>
       <c r="C71" s="10" t="s">
         <v>66</v>
       </c>
       <c r="D71" s="38"/>
       <c r="E71" s="34"/>
     </row>
-    <row r="72" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="51"/>
-      <c r="B72" s="53"/>
+    <row r="72" spans="1:5" ht="35" customHeight="1">
+      <c r="A72" s="98"/>
+      <c r="B72" s="99"/>
       <c r="C72" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D72" s="38"/>
       <c r="E72" s="34"/>
     </row>
-    <row r="73" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="55">
+    <row r="73" spans="1:5" ht="35" customHeight="1">
+      <c r="A73" s="52">
         <v>15</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="99" t="s">
         <v>101</v>
       </c>
       <c r="C73" s="31" t="s">
@@ -4535,233 +4530,233 @@
       <c r="D73" s="14"/>
       <c r="E73" s="27"/>
     </row>
-    <row r="74" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="56"/>
-      <c r="B74" s="54"/>
+    <row r="74" spans="1:5" ht="35" customHeight="1">
+      <c r="A74" s="61"/>
+      <c r="B74" s="115"/>
       <c r="C74" s="31" t="s">
         <v>103</v>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="27"/>
     </row>
-    <row r="75" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="35" customHeight="1">
       <c r="A75" s="34"/>
       <c r="B75" s="48"/>
       <c r="C75" s="31"/>
       <c r="D75" s="8"/>
       <c r="E75" s="30"/>
     </row>
-    <row r="76" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="35" customHeight="1">
       <c r="A76" s="34"/>
       <c r="B76" s="48"/>
       <c r="C76" s="31"/>
       <c r="D76" s="14"/>
       <c r="E76" s="39"/>
     </row>
-    <row r="77" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="35" customHeight="1">
       <c r="A77" s="34"/>
       <c r="B77" s="48"/>
       <c r="C77" s="31"/>
       <c r="D77" s="14"/>
       <c r="E77" s="39"/>
     </row>
-    <row r="78" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="35" customHeight="1">
       <c r="A78" s="34"/>
       <c r="B78" s="48"/>
       <c r="C78" s="31"/>
       <c r="D78" s="14"/>
       <c r="E78" s="39"/>
     </row>
-    <row r="79" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="61"/>
-      <c r="B79" s="59"/>
+    <row r="79" spans="1:5" ht="35" customHeight="1">
+      <c r="A79" s="107"/>
+      <c r="B79" s="55"/>
       <c r="C79" s="10"/>
       <c r="D79" s="33"/>
       <c r="E79" s="34"/>
     </row>
-    <row r="80" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="61"/>
-      <c r="B80" s="59"/>
+    <row r="80" spans="1:5" ht="35" customHeight="1">
+      <c r="A80" s="107"/>
+      <c r="B80" s="55"/>
       <c r="C80" s="10"/>
       <c r="D80" s="33"/>
       <c r="E80" s="34"/>
     </row>
-    <row r="81" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
-      <c r="B81" s="59"/>
+    <row r="81" spans="1:5" ht="35" customHeight="1">
+      <c r="A81" s="107"/>
+      <c r="B81" s="55"/>
       <c r="C81" s="10"/>
       <c r="D81" s="33"/>
       <c r="E81" s="32"/>
     </row>
-    <row r="82" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="61"/>
-      <c r="B82" s="59"/>
+    <row r="82" spans="1:5" ht="35" customHeight="1">
+      <c r="A82" s="107"/>
+      <c r="B82" s="55"/>
       <c r="C82" s="10"/>
       <c r="D82" s="33"/>
       <c r="E82" s="34"/>
     </row>
-    <row r="83" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="61"/>
-      <c r="B83" s="59"/>
+    <row r="83" spans="1:5" ht="35" customHeight="1">
+      <c r="A83" s="107"/>
+      <c r="B83" s="55"/>
       <c r="C83" s="10"/>
       <c r="D83" s="33"/>
       <c r="E83" s="34"/>
     </row>
-    <row r="84" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="61"/>
-      <c r="B84" s="59"/>
+    <row r="84" spans="1:5" ht="35" customHeight="1">
+      <c r="A84" s="107"/>
+      <c r="B84" s="55"/>
       <c r="C84" s="10"/>
       <c r="D84" s="33"/>
       <c r="E84" s="34"/>
     </row>
-    <row r="85" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="61"/>
-      <c r="B85" s="59"/>
+    <row r="85" spans="1:5" ht="35" customHeight="1">
+      <c r="A85" s="107"/>
+      <c r="B85" s="55"/>
       <c r="C85" s="10"/>
       <c r="D85" s="33"/>
       <c r="E85" s="34"/>
     </row>
-    <row r="86" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="61"/>
-      <c r="B86" s="59"/>
+    <row r="86" spans="1:5" ht="35" customHeight="1">
+      <c r="A86" s="107"/>
+      <c r="B86" s="55"/>
       <c r="C86" s="10"/>
       <c r="D86" s="33"/>
       <c r="E86" s="34"/>
     </row>
-    <row r="87" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="62"/>
-      <c r="B87" s="60"/>
+    <row r="87" spans="1:5" ht="35" customHeight="1">
+      <c r="A87" s="108"/>
+      <c r="B87" s="106"/>
       <c r="C87" s="10"/>
       <c r="D87" s="35"/>
       <c r="E87" s="34"/>
     </row>
-    <row r="88" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="69"/>
-    </row>
-    <row r="89" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="70"/>
-    </row>
-    <row r="90" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="35" customHeight="1">
+      <c r="A88" s="62"/>
+    </row>
+    <row r="89" spans="1:5" ht="35" customHeight="1">
+      <c r="A89" s="64"/>
+    </row>
+    <row r="90" spans="1:5" ht="48" customHeight="1">
       <c r="A90" s="8"/>
     </row>
-    <row r="91" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="48" customHeight="1">
       <c r="A91" s="8"/>
     </row>
-    <row r="92" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="48" customHeight="1">
       <c r="A92" s="8"/>
     </row>
-    <row r="93" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="48" customHeight="1">
       <c r="A93" s="8"/>
     </row>
-    <row r="94" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="48" customHeight="1">
       <c r="A94" s="8"/>
     </row>
-    <row r="95" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="48" customHeight="1">
       <c r="A95" s="8"/>
     </row>
-    <row r="96" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="48" customHeight="1">
       <c r="A96" s="8"/>
     </row>
-    <row r="97" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="48" customHeight="1">
       <c r="A97" s="8"/>
       <c r="C97" s="17"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="48" customHeight="1">
       <c r="A98" s="8"/>
     </row>
-    <row r="99" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="48" customHeight="1">
       <c r="A99" s="8"/>
     </row>
-    <row r="100" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="48" customHeight="1">
       <c r="A100" s="8"/>
     </row>
-    <row r="101" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="48" customHeight="1">
       <c r="A101" s="8"/>
     </row>
-    <row r="102" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="48" customHeight="1">
       <c r="A102" s="8"/>
     </row>
-    <row r="103" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="48" customHeight="1">
       <c r="A103" s="8"/>
     </row>
-    <row r="104" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="48" customHeight="1">
       <c r="A104" s="8"/>
     </row>
-    <row r="105" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="48" customHeight="1">
       <c r="A105" s="8"/>
     </row>
-    <row r="106" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="48" customHeight="1">
       <c r="A106" s="8"/>
     </row>
-    <row r="107" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="48" customHeight="1">
       <c r="A107" s="8"/>
     </row>
-    <row r="108" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="48" customHeight="1">
       <c r="A108" s="8"/>
     </row>
-    <row r="109" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="48" customHeight="1">
       <c r="A109" s="8"/>
     </row>
-    <row r="110" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="48" customHeight="1">
       <c r="A110" s="8"/>
     </row>
-    <row r="111" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="48" customHeight="1">
       <c r="A111" s="8"/>
     </row>
-    <row r="112" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="48" customHeight="1">
       <c r="A112" s="8"/>
     </row>
-    <row r="113" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="48" customHeight="1">
       <c r="A113" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="40.5" customHeight="1">
       <c r="A114" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="40.5" customHeight="1">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="34.5" customHeight="1">
       <c r="A116" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="34.5" customHeight="1">
       <c r="A117" s="19"/>
     </row>
-    <row r="118" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="34.5" customHeight="1">
       <c r="A118" s="16"/>
     </row>
-    <row r="119" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="34.5" customHeight="1">
       <c r="A119" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="34.5" customHeight="1">
       <c r="A120" s="16"/>
     </row>
-    <row r="121" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="34.5" customHeight="1">
       <c r="A121" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="34.5" customHeight="1">
       <c r="A122" s="19"/>
     </row>
-    <row r="123" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="34.5" customHeight="1">
       <c r="A123" s="19"/>
     </row>
-    <row r="124" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="34.5" customHeight="1">
       <c r="A124" s="19"/>
     </row>
-    <row r="125" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="34.5" customHeight="1">
       <c r="A125" s="19"/>
       <c r="B125" s="19"/>
       <c r="C125" s="10" t="s">
@@ -4770,7 +4765,7 @@
       <c r="D125" s="20"/>
       <c r="E125" s="21"/>
     </row>
-    <row r="126" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="34.5" customHeight="1">
       <c r="A126" s="19"/>
       <c r="B126" s="19"/>
       <c r="C126" s="10" t="s">
@@ -4779,7 +4774,7 @@
       <c r="D126" s="20"/>
       <c r="E126" s="21"/>
     </row>
-    <row r="127" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="34.5" customHeight="1">
       <c r="A127" s="19"/>
       <c r="B127" s="19"/>
       <c r="C127" s="10" t="s">
@@ -4788,7 +4783,7 @@
       <c r="D127" s="20"/>
       <c r="E127" s="21"/>
     </row>
-    <row r="128" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="34.5" customHeight="1">
       <c r="A128" s="16"/>
       <c r="B128" s="16"/>
       <c r="C128" s="10" t="s">
@@ -4797,113 +4792,113 @@
       <c r="D128" s="22"/>
       <c r="E128" s="23"/>
     </row>
-    <row r="129" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="69">
+    <row r="129" spans="1:5" ht="34.5" customHeight="1">
+      <c r="A129" s="62">
         <v>4</v>
       </c>
-      <c r="B129" s="71" t="s">
+      <c r="B129" s="96" t="s">
         <v>20</v>
       </c>
       <c r="C129" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D129" s="74"/>
-      <c r="E129" s="75"/>
-    </row>
-    <row r="130" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="70"/>
-      <c r="B130" s="70"/>
+      <c r="D129" s="100"/>
+      <c r="E129" s="101"/>
+    </row>
+    <row r="130" spans="1:5" ht="34.5" customHeight="1">
+      <c r="A130" s="64"/>
+      <c r="B130" s="64"/>
       <c r="C130" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D130" s="78"/>
-      <c r="E130" s="79"/>
-    </row>
-    <row r="131" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="69">
+      <c r="D130" s="104"/>
+      <c r="E130" s="105"/>
+    </row>
+    <row r="131" spans="1:5" ht="34.5" customHeight="1">
+      <c r="A131" s="62">
         <v>5</v>
       </c>
-      <c r="B131" s="71" t="s">
+      <c r="B131" s="96" t="s">
         <v>23</v>
       </c>
       <c r="C131" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D131" s="74"/>
-      <c r="E131" s="75"/>
-    </row>
-    <row r="132" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="72"/>
-      <c r="B132" s="72"/>
+      <c r="D131" s="100"/>
+      <c r="E131" s="101"/>
+    </row>
+    <row r="132" spans="1:5" ht="34.5" customHeight="1">
+      <c r="A132" s="63"/>
+      <c r="B132" s="63"/>
       <c r="C132" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D132" s="76"/>
-      <c r="E132" s="77"/>
-    </row>
-    <row r="133" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="70"/>
-      <c r="B133" s="70"/>
+      <c r="D132" s="102"/>
+      <c r="E132" s="103"/>
+    </row>
+    <row r="133" spans="1:5" ht="34.5" customHeight="1">
+      <c r="A133" s="64"/>
+      <c r="B133" s="64"/>
       <c r="C133" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D133" s="78"/>
-      <c r="E133" s="79"/>
-    </row>
-    <row r="134" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="69">
+      <c r="D133" s="104"/>
+      <c r="E133" s="105"/>
+    </row>
+    <row r="134" spans="1:5" ht="34.5" customHeight="1">
+      <c r="A134" s="62">
         <v>6</v>
       </c>
-      <c r="B134" s="71" t="s">
+      <c r="B134" s="96" t="s">
         <v>27</v>
       </c>
       <c r="C134" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D134" s="74"/>
-      <c r="E134" s="75"/>
-    </row>
-    <row r="135" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="70"/>
-      <c r="B135" s="70"/>
+      <c r="D134" s="100"/>
+      <c r="E134" s="101"/>
+    </row>
+    <row r="135" spans="1:5" ht="34.5" customHeight="1">
+      <c r="A135" s="64"/>
+      <c r="B135" s="64"/>
       <c r="C135" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D135" s="78"/>
-      <c r="E135" s="79"/>
-    </row>
-    <row r="136" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="69">
+      <c r="D135" s="104"/>
+      <c r="E135" s="105"/>
+    </row>
+    <row r="136" spans="1:5" ht="34.5" customHeight="1">
+      <c r="A136" s="62">
         <v>7</v>
       </c>
-      <c r="B136" s="71" t="s">
+      <c r="B136" s="96" t="s">
         <v>30</v>
       </c>
       <c r="C136" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D136" s="74"/>
-      <c r="E136" s="75"/>
-    </row>
-    <row r="137" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="72"/>
-      <c r="B137" s="72"/>
+      <c r="D136" s="100"/>
+      <c r="E136" s="101"/>
+    </row>
+    <row r="137" spans="1:5" ht="34.5" customHeight="1">
+      <c r="A137" s="63"/>
+      <c r="B137" s="63"/>
       <c r="C137" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D137" s="76"/>
-      <c r="E137" s="77"/>
-    </row>
-    <row r="138" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="70"/>
-      <c r="B138" s="70"/>
+      <c r="D137" s="102"/>
+      <c r="E137" s="103"/>
+    </row>
+    <row r="138" spans="1:5" ht="34.5" customHeight="1">
+      <c r="A138" s="64"/>
+      <c r="B138" s="64"/>
       <c r="C138" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D138" s="78"/>
-      <c r="E138" s="79"/>
-    </row>
-    <row r="139" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D138" s="104"/>
+      <c r="E138" s="105"/>
+    </row>
+    <row r="139" spans="1:5" ht="34.5" customHeight="1">
       <c r="A139" s="8">
         <v>8</v>
       </c>
@@ -4913,10 +4908,10 @@
       <c r="C139" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D139" s="66"/>
-      <c r="E139" s="67"/>
-    </row>
-    <row r="140" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D139" s="93"/>
+      <c r="E139" s="94"/>
+    </row>
+    <row r="140" spans="1:5" ht="16.5" customHeight="1">
       <c r="A140" s="24"/>
       <c r="B140" s="25"/>
       <c r="C140" s="26"/>
@@ -4925,15 +4920,35 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B79:B87"/>
+    <mergeCell ref="A79:A87"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="D136:E138"/>
+    <mergeCell ref="D134:E135"/>
+    <mergeCell ref="D131:E133"/>
+    <mergeCell ref="D129:E130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="A129:A130"/>
     <mergeCell ref="A131:A133"/>
     <mergeCell ref="A134:A135"/>
     <mergeCell ref="A1:E2"/>
@@ -4950,40 +4965,20 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="D136:E138"/>
-    <mergeCell ref="D134:E135"/>
-    <mergeCell ref="D131:E133"/>
-    <mergeCell ref="D129:E130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B79:B87"/>
-    <mergeCell ref="A79:A87"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="A25:A28"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A73:A74"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A65:A66"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="B39:B43"/>
   </mergeCells>
@@ -4992,5 +4987,10 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>